--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
       </c>
       <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
@@ -764,107 +767,116 @@
         <v>600</v>
       </c>
       <c r="M8" s="3">
+        <v>600</v>
+      </c>
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,8 +1002,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,87 +1097,91 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,40 +1255,43 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
@@ -1264,10 +1300,13 @@
         <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1280,11 +1319,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1392,14 +1437,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,25 +2052,26 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
@@ -2000,7 +2086,7 @@
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
@@ -2009,10 +2095,13 @@
         <v>300</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2144,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2073,60 +2165,63 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2143,34 +2238,37 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2184,55 +2282,61 @@
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2249,16 +2353,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2313,14 +2420,17 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,43 +2579,46 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2661,16 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>1100</v>
@@ -2554,37 +2679,40 @@
         <v>1100</v>
       </c>
       <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>900</v>
       </c>
       <c r="N54" s="3">
+        <v>900</v>
+      </c>
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2748,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -2652,45 +2782,48 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -2701,102 +2834,111 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
       </c>
       <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
       </c>
       <c r="N66" s="3">
+        <v>700</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3423,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1300</v>
       </c>
       <c r="G72" s="3">
         <v>-1300</v>
@@ -3274,31 +3447,34 @@
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1400</v>
       </c>
       <c r="P72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,19 +3611,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>300</v>
       </c>
       <c r="G76" s="3">
         <v>300</v>
@@ -3453,10 +3638,10 @@
         <v>300</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
@@ -3465,16 +3650,19 @@
         <v>200</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O76" s="3">
         <v>100</v>
       </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3969,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3992,14 +4212,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,26 +4312,29 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4119,19 +4348,22 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +4566,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4342,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,46 +751,52 @@
         <v>1000</v>
       </c>
       <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>900</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
       </c>
       <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
+        <v>600</v>
+      </c>
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,25 +804,25 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -817,19 +831,25 @@
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
+        <v>400</v>
+      </c>
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,25 +860,25 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -870,13 +890,19 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1005,11 +1045,11 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1017,11 +1057,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,28 +1150,30 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
@@ -1131,69 +1185,81 @@
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>900</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1341,52 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,14 +1402,14 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1440,14 +1532,20 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,31 +2225,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
@@ -2089,19 +2263,25 @@
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,19 +2327,25 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -2168,66 +2354,72 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2241,19 +2433,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2267,14 +2465,14 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2285,58 +2483,70 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2423,14 +2639,20 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2582,10 +2822,10 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2594,31 +2834,37 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1100</v>
       </c>
       <c r="G54" s="3">
         <v>1100</v>
       </c>
       <c r="H54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,87 +3009,95 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2837,40 +3105,46 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>400</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -2879,66 +3153,78 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2995,20 +3287,20 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,13 +3768,19 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
         <v>-1500</v>
@@ -3441,40 +3789,46 @@
         <v>-1400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K72" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="L72" s="3">
         <v>-1400</v>
       </c>
       <c r="M72" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="N72" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="O72" s="3">
         <v>-1300</v>
       </c>
       <c r="P72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,16 +3995,16 @@
         <v>500</v>
       </c>
       <c r="E76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F76" s="3">
         <v>500</v>
       </c>
       <c r="G76" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H76" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I76" s="3">
         <v>300</v>
@@ -3641,28 +4013,34 @@
         <v>300</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>200</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4123,16 +4557,16 @@
         <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4144,10 +4578,10 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>200</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4192,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4215,14 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,32 +4769,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4351,19 +4811,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,19 +5055,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4590,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,31 +5161,37 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
@@ -4702,12 +5206,18 @@
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>800</v>
       </c>
       <c r="I8" s="3">
         <v>800</v>
       </c>
       <c r="J8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
         <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
       </c>
       <c r="N8" s="3">
         <v>600</v>
@@ -784,125 +788,134 @@
         <v>600</v>
       </c>
       <c r="P8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1051,8 +1071,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,105 +1178,109 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1332,49 +1366,52 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
@@ -1383,15 +1420,18 @@
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1408,11 +1448,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1438,66 +1478,72 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1538,14 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,34 +2313,35 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
@@ -2269,7 +2356,7 @@
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
@@ -2278,10 +2365,13 @@
         <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,22 +2423,25 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2360,69 +2453,72 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>400</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2453,8 +2552,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2471,11 +2570,11 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2489,64 +2588,70 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2572,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2645,14 +2753,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2828,43 +2948,46 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,22 +3039,25 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
         <v>1500</v>
       </c>
       <c r="F54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1100</v>
       </c>
       <c r="H54" s="3">
         <v>1100</v>
@@ -2940,37 +3066,40 @@
         <v>1100</v>
       </c>
       <c r="J54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>900</v>
       </c>
       <c r="P54" s="3">
         <v>900</v>
       </c>
       <c r="Q54" s="3">
+        <v>900</v>
+      </c>
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,28 +3154,28 @@
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3053,19 +3184,22 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3079,28 +3213,28 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3111,120 +3245,129 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
       </c>
       <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3287,8 +3433,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -3302,8 +3448,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
       </c>
       <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>700</v>
       </c>
       <c r="Q66" s="3">
+        <v>700</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,28 +3945,31 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
         <v>-1500</v>
       </c>
       <c r="F72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1300</v>
       </c>
       <c r="J72" s="3">
         <v>-1300</v>
@@ -3804,31 +3978,34 @@
         <v>-1300</v>
       </c>
       <c r="L72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-1400</v>
       </c>
       <c r="S72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E76" s="3">
         <v>500</v>
@@ -4001,13 +4187,13 @@
         <v>500</v>
       </c>
       <c r="G76" s="3">
+        <v>500</v>
+      </c>
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>300</v>
       </c>
       <c r="J76" s="3">
         <v>300</v>
@@ -4019,10 +4205,10 @@
         <v>300</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
@@ -4031,16 +4217,19 @@
         <v>200</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R76" s="3">
         <v>100</v>
       </c>
       <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4640,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,35 +5002,38 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4817,19 +5047,22 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,22 +5304,25 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5088,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -1184,8 +1184,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1240,8 +1240,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1318,8 +1318,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1374,8 +1374,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1430,8 +1430,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1486,8 +1486,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1654,8 +1654,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1710,8 +1710,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1990,8 +1990,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2046,8 +2046,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2158,8 +2158,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
@@ -2487,8 +2487,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>400</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -3204,7 +3204,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -4350,8 +4350,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1100</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
       </c>
       <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>900</v>
       </c>
       <c r="N8" s="3">
         <v>600</v>
       </c>
       <c r="O8" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
       </c>
       <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+      <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>900</v>
       </c>
       <c r="G9" s="3">
         <v>700</v>
       </c>
       <c r="H9" s="3">
+        <v>900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
@@ -847,30 +860,36 @@
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -879,25 +898,25 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -909,13 +928,19 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1081,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1074,11 +1113,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1086,11 +1125,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,37 +1230,39 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
@@ -1221,78 +1274,90 @@
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>900</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
+        <v>900</v>
+      </c>
+      <c r="T17" s="3">
+        <v>700</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,72 +1436,84 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
         <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1451,14 +1530,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1481,75 +1560,87 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>100</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1587,14 +1678,20 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,40 +2485,42 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2359,19 +2532,25 @@
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,28 +2605,34 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -2456,75 +2641,81 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
+      <c r="E44" s="3">
+        <v>100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2555,11 +2752,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2573,14 +2770,14 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2591,67 +2788,79 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>700</v>
       </c>
       <c r="S46" s="3">
+        <v>800</v>
+      </c>
+      <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2680,19 +2889,19 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2756,14 +2971,20 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,10 +3178,10 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -2951,10 +3190,10 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -2963,31 +3202,37 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
-      </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
       </c>
       <c r="J54" s="3">
         <v>1100</v>
       </c>
       <c r="K54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,105 +3401,113 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3248,14 +3515,20 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3266,31 +3539,31 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3299,19 +3572,25 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,55 +3598,61 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,25 +3707,31 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -3451,11 +3742,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3970,61 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,22 +4289,28 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1400</v>
       </c>
       <c r="H72" s="3">
         <v>-1500</v>
@@ -3972,40 +4319,46 @@
         <v>-1400</v>
       </c>
       <c r="J72" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="K72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="L72" s="3">
         <v>-1300</v>
       </c>
       <c r="M72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="N72" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1400</v>
       </c>
       <c r="P72" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="R72" s="3">
         <v>-1300</v>
       </c>
       <c r="S72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,34 +4537,40 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E76" s="3">
         <v>500</v>
       </c>
       <c r="F76" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G76" s="3">
         <v>500</v>
       </c>
       <c r="H76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I76" s="3">
         <v>500</v>
       </c>
       <c r="J76" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K76" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L76" s="3">
         <v>300</v>
@@ -4208,28 +4579,34 @@
         <v>300</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>200</v>
       </c>
       <c r="R76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,20 +5186,26 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
@@ -4783,16 +5216,16 @@
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4804,10 +5237,10 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>200</v>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,20 +5276,22 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4864,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4887,14 +5328,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,41 +5458,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5050,19 +5509,25 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,28 +5792,34 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5337,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,40 +5916,46 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
@@ -5467,12 +5970,18 @@
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,213 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1100</v>
       </c>
       <c r="I8" s="3">
         <v>1000</v>
       </c>
       <c r="J8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>900</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
       </c>
       <c r="Q8" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
+        <v>600</v>
+      </c>
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>900</v>
       </c>
       <c r="I9" s="3">
         <v>700</v>
       </c>
       <c r="J9" s="3">
+        <v>900</v>
+      </c>
+      <c r="K9" s="3">
+        <v>700</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>500</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -866,19 +880,25 @@
         <v>400</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
+        <v>400</v>
+      </c>
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,16 +906,16 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -904,25 +924,25 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -934,13 +954,19 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,31 +1121,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1119,11 +1159,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1131,11 +1171,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,43 +1284,45 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>900</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
@@ -1280,22 +1334,28 @@
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>900</v>
+      </c>
+      <c r="V17" s="3">
+        <v>700</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1363,67 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,75 +1525,81 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
         <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1536,14 +1616,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1566,87 +1646,99 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1684,14 +1776,20 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,70 +2326,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,46 +2659,48 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
-      </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2538,19 +2712,25 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2620,25 +2806,25 @@
         <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2647,81 +2833,87 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>100</v>
-      </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2758,11 +2956,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
@@ -2776,14 +2974,14 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2794,73 +2992,85 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>700</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
       <c r="N46" s="3">
+        <v>700</v>
+      </c>
+      <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>700</v>
       </c>
       <c r="U46" s="3">
+        <v>800</v>
+      </c>
+      <c r="V46" s="3">
+        <v>700</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2895,19 +3105,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2939,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2977,14 +3193,20 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,25 +3403,31 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>7400</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>6500</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -3196,10 +3436,10 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -3208,31 +3448,37 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
-        <v>100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>100</v>
-      </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
       </c>
       <c r="L54" s="3">
         <v>1100</v>
       </c>
       <c r="M54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,117 +3663,125 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3521,22 +3789,28 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3545,31 +3819,31 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3578,89 +3852,101 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>5400</v>
       </c>
       <c r="E60" s="3">
-        <v>900</v>
+        <v>5300</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3724,20 +4016,20 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3748,11 +4040,11 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>7900</v>
       </c>
       <c r="E66" s="3">
-        <v>900</v>
+        <v>7000</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
+        <v>900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,28 +4637,34 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1400</v>
       </c>
       <c r="J72" s="3">
         <v>-1500</v>
@@ -4325,40 +4673,46 @@
         <v>-1400</v>
       </c>
       <c r="L72" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="M72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="N72" s="3">
         <v>-1300</v>
       </c>
       <c r="O72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="P72" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="Q72" s="3">
         <v>-1400</v>
       </c>
       <c r="R72" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="S72" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="T72" s="3">
         <v>-1300</v>
       </c>
       <c r="U72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W72" s="3">
         <v>-1400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,40 +4909,46 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E76" s="3">
         <v>500</v>
       </c>
       <c r="F76" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G76" s="3">
         <v>500</v>
       </c>
       <c r="H76" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I76" s="3">
         <v>500</v>
       </c>
       <c r="J76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
       </c>
       <c r="L76" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M76" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>300</v>
@@ -4585,28 +4957,34 @@
         <v>300</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>200</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,26 +5620,32 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
@@ -5222,16 +5656,16 @@
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -5243,10 +5677,10 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,26 +5718,28 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>100</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
+        <v>100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5311,13 +5753,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5334,14 +5776,20 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,47 +5918,53 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5515,19 +5975,25 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,34 +6284,40 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5834,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,46 +6420,52 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
@@ -5976,12 +6480,18 @@
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,154 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>800</v>
       </c>
       <c r="N8" s="3">
         <v>800</v>
       </c>
       <c r="O8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
       </c>
       <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+      <c r="R8" s="3">
         <v>900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
@@ -818,87 +821,93 @@
         <v>600</v>
       </c>
       <c r="U8" s="3">
+        <v>600</v>
+      </c>
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>400</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,67 +915,70 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,11 +1160,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1165,8 +1184,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,135 +1311,139 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>700</v>
+      </c>
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,64 +1549,67 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>100</v>
@@ -1582,15 +1618,18 @@
         <v>100</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1598,11 +1637,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1622,11 +1661,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1652,96 +1691,102 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1782,14 +1827,17 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,40 +2756,40 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
@@ -2718,7 +2804,7 @@
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
@@ -2727,10 +2813,13 @@
         <v>300</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,28 +2898,28 @@
         <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
       </c>
       <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2839,34 +2931,37 @@
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>400</v>
       </c>
       <c r="V43" s="3">
+        <v>400</v>
+      </c>
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2879,11 +2974,11 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -2891,32 +2986,32 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2962,8 +3060,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2980,11 +3078,11 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2998,11 +3096,14 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,67 +3111,70 @@
         <v>800</v>
       </c>
       <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3111,16 +3215,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3161,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3199,14 +3306,17 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,28 +3525,31 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -3442,43 +3561,46 @@
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,37 +3667,40 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1500</v>
       </c>
       <c r="K54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="3">
         <v>1700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1100</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
@@ -3584,37 +3709,40 @@
         <v>1100</v>
       </c>
       <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>900</v>
       </c>
       <c r="U54" s="3">
         <v>900</v>
       </c>
       <c r="V54" s="3">
+        <v>900</v>
+      </c>
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3794,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -3692,28 +3822,28 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -3722,39 +3852,42 @@
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3763,28 +3896,28 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3795,150 +3928,159 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
       </c>
       <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
       </c>
       <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
-      </c>
-      <c r="T60" s="3">
-        <v>700</v>
       </c>
       <c r="U60" s="3">
         <v>700</v>
       </c>
       <c r="V60" s="3">
+        <v>700</v>
+      </c>
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,11 +4088,11 @@
         <v>2500</v>
       </c>
       <c r="E61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4022,8 +4167,8 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4031,8 +4176,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -4046,8 +4191,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
         <v>1200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>700</v>
       </c>
       <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4652,34 +4825,34 @@
         <v>-1800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F72" s="3">
         <v>-1700</v>
       </c>
       <c r="G72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1500</v>
       </c>
       <c r="J72" s="3">
         <v>-1500</v>
       </c>
       <c r="K72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1300</v>
@@ -4688,31 +4861,34 @@
         <v>-1300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-1400</v>
       </c>
       <c r="X72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,16 +5097,19 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>500</v>
       </c>
       <c r="F76" s="3">
         <v>500</v>
@@ -4933,10 +5118,10 @@
         <v>500</v>
       </c>
       <c r="H76" s="3">
+        <v>500</v>
+      </c>
+      <c r="I76" s="3">
         <v>700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>500</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
@@ -4945,13 +5130,13 @@
         <v>500</v>
       </c>
       <c r="L76" s="3">
+        <v>500</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>300</v>
       </c>
       <c r="O76" s="3">
         <v>300</v>
@@ -4963,10 +5148,10 @@
         <v>300</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>200</v>
@@ -4975,16 +5160,19 @@
         <v>200</v>
       </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
       <c r="X76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +5939,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>500</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -5734,15 +5954,15 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>100</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
+        <v>100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5759,10 +5979,10 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,50 +6150,53 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5981,19 +6210,22 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,37 +6532,40 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6332,10 +6577,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,242 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
-        <v>200</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1100</v>
       </c>
       <c r="L8" s="3">
         <v>1000</v>
       </c>
       <c r="M8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>900</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
       <c r="T8" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
       </c>
       <c r="V8" s="3">
+        <v>600</v>
+      </c>
+      <c r="W8" s="3">
+        <v>600</v>
+      </c>
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>900</v>
       </c>
       <c r="L9" s="3">
         <v>700</v>
       </c>
       <c r="M9" s="3">
+        <v>900</v>
+      </c>
+      <c r="N9" s="3">
+        <v>700</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>500</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
@@ -895,45 +909,51 @@
         <v>400</v>
       </c>
       <c r="V9" s="3">
+        <v>300</v>
+      </c>
+      <c r="W9" s="3">
+        <v>400</v>
+      </c>
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>400</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
@@ -942,25 +962,25 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
-        <v>200</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>200</v>
-      </c>
-      <c r="T10" s="3">
-        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -972,13 +992,19 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,23 +1203,23 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1187,11 +1227,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1199,11 +1239,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,52 +1364,54 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
@@ -1369,30 +1423,36 @@
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>900</v>
       </c>
       <c r="W17" s="3">
         <v>700</v>
       </c>
       <c r="X17" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
@@ -1401,61 +1461,67 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>200</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,13 +1547,15 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1552,16 +1620,22 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
@@ -1570,84 +1644,90 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>200</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
         <v>100</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1664,14 +1744,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1694,105 +1774,117 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>100</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1830,14 +1922,20 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>100</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2467,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>100</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>100</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,55 +2919,57 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
-      </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
@@ -2807,19 +2981,25 @@
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,43 +3069,49 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -2934,90 +3120,96 @@
         <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>200</v>
+      </c>
+      <c r="V43" s="3">
+        <v>200</v>
+      </c>
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3063,11 +3261,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
@@ -3081,14 +3279,14 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3099,82 +3297,94 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
-        <v>500</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>600</v>
       </c>
       <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
+        <v>600</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>700</v>
-      </c>
-      <c r="V46" s="3">
-        <v>800</v>
       </c>
       <c r="W46" s="3">
         <v>700</v>
       </c>
       <c r="X46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3197,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3218,19 +3428,19 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3271,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3309,14 +3525,20 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,34 +3762,40 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F52" s="3">
         <v>7300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
@@ -3564,10 +3804,10 @@
         <v>600</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -3576,31 +3816,37 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
-        <v>200</v>
-      </c>
       <c r="T52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,135 +4055,143 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
-        <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
       <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
-      </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -3931,14 +4199,20 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3946,16 +4220,16 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3964,31 +4238,31 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
-      </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -3997,90 +4271,102 @@
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,14 +4377,14 @@
         <v>2500</v>
       </c>
       <c r="F61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4170,20 +4462,20 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -4194,11 +4486,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7600</v>
+        <v>8300</v>
       </c>
       <c r="E66" s="3">
         <v>7900</v>
       </c>
       <c r="F66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H66" s="3">
         <v>7000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,37 +5158,43 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1400</v>
       </c>
       <c r="M72" s="3">
         <v>-1500</v>
@@ -4855,40 +5203,46 @@
         <v>-1400</v>
       </c>
       <c r="O72" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="P72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="Q72" s="3">
         <v>-1300</v>
       </c>
       <c r="R72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="S72" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="T72" s="3">
         <v>-1400</v>
       </c>
       <c r="U72" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="V72" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="W72" s="3">
         <v>-1300</v>
       </c>
       <c r="X72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,49 +5466,55 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E76" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F76" s="3">
         <v>500</v>
       </c>
       <c r="G76" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H76" s="3">
         <v>500</v>
       </c>
       <c r="I76" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
       </c>
       <c r="K76" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L76" s="3">
         <v>500</v>
       </c>
       <c r="M76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>500</v>
       </c>
       <c r="O76" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P76" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q76" s="3">
         <v>300</v>
@@ -5151,28 +5523,34 @@
         <v>300</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
       <c r="W76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>100</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,35 +6270,41 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
@@ -5881,16 +6315,16 @@
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -5902,10 +6336,10 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>200</v>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,35 +6380,37 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>500</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>100</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
+        <v>100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5982,13 +6424,13 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6005,14 +6447,20 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,56 +6607,62 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6213,19 +6673,25 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,43 +7021,49 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6580,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,46 +7190,46 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
@@ -6740,12 +7244,18 @@
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -1371,8 +1371,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
@@ -1448,8 +1448,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
@@ -1554,8 +1554,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1631,8 +1631,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1708,8 +1708,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1785,8 +1785,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
@@ -2478,8 +2478,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
@@ -6388,7 +6388,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,175 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>800</v>
       </c>
       <c r="Q8" s="3">
         <v>800</v>
       </c>
       <c r="R8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
       <c r="T8" s="3">
+        <v>600</v>
+      </c>
+      <c r="U8" s="3">
         <v>900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
       </c>
       <c r="V8" s="3">
         <v>600</v>
@@ -838,173 +842,182 @@
         <v>600</v>
       </c>
       <c r="X8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,13 +1203,16 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1209,11 +1229,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1233,8 +1253,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,153 +1392,157 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>700</v>
       </c>
       <c r="W17" s="3">
         <v>700</v>
       </c>
       <c r="X17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,73 +1660,76 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y21" s="3">
         <v>100</v>
@@ -1701,10 +1738,13 @@
         <v>100</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1726,11 +1766,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1750,11 +1790,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1780,90 +1820,96 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>100</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1871,23 +1917,23 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1928,14 +1974,17 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>100</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>100</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>100</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>100</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,58 +3007,59 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
@@ -2987,7 +3074,7 @@
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
@@ -2996,10 +3083,13 @@
         <v>300</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,16 +3165,19 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>600</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
@@ -3093,28 +3186,28 @@
         <v>600</v>
       </c>
       <c r="H43" s="3">
+        <v>600</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
       </c>
       <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -3126,34 +3219,37 @@
         <v>300</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>400</v>
       </c>
       <c r="Y43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3178,8 +3274,8 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -3187,32 +3283,32 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
-        <v>100</v>
-      </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3267,8 +3366,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
@@ -3285,11 +3384,11 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3303,88 +3402,94 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
+        <v>500</v>
+      </c>
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3407,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3434,16 +3539,16 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
       </c>
       <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3493,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3531,14 +3639,17 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,37 +3885,40 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
@@ -3810,43 +3930,46 @@
         <v>600</v>
       </c>
       <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
       </c>
       <c r="U52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V52" s="3">
         <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,46 +4045,49 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1500</v>
       </c>
       <c r="M54" s="3">
         <v>1500</v>
       </c>
       <c r="N54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O54" s="3">
         <v>1700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
       </c>
       <c r="P54" s="3">
         <v>1100</v>
@@ -3970,37 +4096,40 @@
         <v>1100</v>
       </c>
       <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
-      </c>
-      <c r="W54" s="3">
-        <v>900</v>
       </c>
       <c r="X54" s="3">
         <v>900</v>
       </c>
       <c r="Y54" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,34 +4187,35 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
@@ -4093,28 +4224,28 @@
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
@@ -4123,48 +4254,51 @@
         <v>400</v>
       </c>
       <c r="X57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
-        <v>100</v>
-      </c>
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -4173,28 +4307,28 @@
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4205,173 +4339,182 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
-      </c>
-      <c r="X59" s="3">
-        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
       </c>
       <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
-      </c>
-      <c r="W60" s="3">
-        <v>700</v>
       </c>
       <c r="X60" s="3">
         <v>700</v>
       </c>
       <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="E61" s="3">
         <v>2500</v>
@@ -4383,11 +4526,11 @@
         <v>2500</v>
       </c>
       <c r="H61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4442,34 +4585,37 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4477,8 +4623,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4492,8 +4638,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1000</v>
       </c>
       <c r="M66" s="3">
         <v>1000</v>
       </c>
       <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>1200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>700</v>
       </c>
       <c r="X66" s="3">
         <v>700</v>
       </c>
       <c r="Y66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,52 +5335,55 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1600</v>
+        <v>-800</v>
       </c>
       <c r="E72" s="3">
         <v>-1600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="G72" s="3">
         <v>-1800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I72" s="3">
         <v>-1700</v>
       </c>
       <c r="J72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1500</v>
       </c>
       <c r="M72" s="3">
         <v>-1500</v>
       </c>
       <c r="N72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1300</v>
       </c>
       <c r="R72" s="3">
         <v>-1300</v>
@@ -5218,31 +5392,34 @@
         <v>-1300</v>
       </c>
       <c r="T72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-1400</v>
       </c>
       <c r="AA72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,25 +5655,28 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>500</v>
       </c>
       <c r="I76" s="3">
         <v>500</v>
@@ -5499,10 +5685,10 @@
         <v>500</v>
       </c>
       <c r="K76" s="3">
+        <v>500</v>
+      </c>
+      <c r="L76" s="3">
         <v>700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>500</v>
       </c>
       <c r="M76" s="3">
         <v>500</v>
@@ -5511,13 +5697,13 @@
         <v>500</v>
       </c>
       <c r="O76" s="3">
+        <v>500</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>300</v>
       </c>
       <c r="R76" s="3">
         <v>300</v>
@@ -5529,10 +5715,10 @@
         <v>300</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
         <v>200</v>
@@ -5541,16 +5727,19 @@
         <v>200</v>
       </c>
       <c r="Y76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z76" s="3">
         <v>100</v>
       </c>
       <c r="AA76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>100</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,38 +6602,39 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>100</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
+        <v>100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -6430,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,59 +6840,62 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6679,19 +6909,22 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,46 +7270,49 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7078,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,181 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>800</v>
       </c>
       <c r="R8" s="3">
         <v>800</v>
       </c>
       <c r="S8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
       </c>
       <c r="U8" s="3">
+        <v>600</v>
+      </c>
+      <c r="V8" s="3">
         <v>900</v>
-      </c>
-      <c r="V8" s="3">
-        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
@@ -845,179 +848,188 @@
         <v>600</v>
       </c>
       <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
-      <c r="AB8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
       </c>
       <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,17 +1222,20 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1232,11 +1251,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1244,8 +1263,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1256,8 +1275,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1268,8 +1287,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1286,13 +1305,16 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,159 +1418,163 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>700</v>
       </c>
       <c r="X17" s="3">
         <v>700</v>
       </c>
       <c r="Y17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
@@ -1553,8 +1582,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1615,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1663,76 +1696,79 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>100</v>
@@ -1741,10 +1777,13 @@
         <v>100</v>
       </c>
       <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1769,11 +1808,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1793,11 +1832,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1823,96 +1862,102 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>100</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
@@ -1920,23 +1965,23 @@
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1977,14 +2022,17 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>8</v>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>100</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>100</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2609,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2623,88 +2692,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>100</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>100</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,61 +3093,62 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
@@ -3077,7 +3163,7 @@
         <v>200</v>
       </c>
       <c r="Y41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z41" s="3">
         <v>300</v>
@@ -3086,10 +3172,13 @@
         <v>300</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,19 +3257,22 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
@@ -3189,28 +3281,28 @@
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>600</v>
       </c>
       <c r="O43" s="3">
+        <v>600</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -3222,34 +3314,37 @@
         <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>400</v>
       </c>
       <c r="Z43" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3277,8 +3372,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
@@ -3286,32 +3381,32 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
-        <v>100</v>
-      </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3328,13 +3423,16 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3369,8 +3467,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
@@ -3387,11 +3485,11 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3405,91 +3503,97 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>800</v>
       </c>
       <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>500</v>
       </c>
       <c r="V46" s="3">
         <v>500</v>
       </c>
       <c r="W46" s="3">
+        <v>500</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3515,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3542,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>100</v>
       </c>
       <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3604,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3642,14 +3749,17 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
+      <c r="AA48" s="3">
+        <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,40 +4004,43 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
@@ -3933,43 +4052,46 @@
         <v>600</v>
       </c>
       <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>300</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
       </c>
       <c r="V52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W52" s="3">
         <v>200</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,49 +4170,52 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1500</v>
       </c>
       <c r="N54" s="3">
         <v>1500</v>
       </c>
       <c r="O54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P54" s="3">
         <v>1700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
@@ -4099,37 +4224,40 @@
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>900</v>
       </c>
       <c r="Y54" s="3">
         <v>900</v>
       </c>
       <c r="Z54" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AB54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,37 +4317,38 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
@@ -4227,28 +4357,28 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
@@ -4257,51 +4387,54 @@
         <v>400</v>
       </c>
       <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -4310,28 +4443,28 @@
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>100</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -4342,182 +4475,191 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>400</v>
       </c>
       <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
       </c>
       <c r="O60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
-      </c>
-      <c r="X60" s="3">
-        <v>700</v>
       </c>
       <c r="Y60" s="3">
         <v>700</v>
       </c>
       <c r="Z60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2500</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
@@ -4529,11 +4671,11 @@
         <v>2500</v>
       </c>
       <c r="I61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4614,11 +4759,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4626,8 +4771,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -4641,8 +4786,8 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,79 +5074,82 @@
         <v>6500</v>
       </c>
       <c r="E66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F66" s="3">
         <v>8300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
       </c>
       <c r="N66" s="3">
         <v>1000</v>
       </c>
       <c r="O66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P66" s="3">
         <v>1200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
       <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
-      </c>
-      <c r="X66" s="3">
-        <v>700</v>
       </c>
       <c r="Y66" s="3">
         <v>700</v>
       </c>
       <c r="Z66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,55 +5508,58 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1600</v>
       </c>
       <c r="F72" s="3">
         <v>-1600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="H72" s="3">
         <v>-1800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J72" s="3">
         <v>-1700</v>
       </c>
       <c r="K72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1500</v>
       </c>
       <c r="N72" s="3">
         <v>-1500</v>
       </c>
       <c r="O72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-1300</v>
       </c>
       <c r="S72" s="3">
         <v>-1300</v>
@@ -5395,31 +5568,34 @@
         <v>-1300</v>
       </c>
       <c r="U72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-1400</v>
       </c>
       <c r="AB72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,28 +5840,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>500</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
@@ -5688,10 +5873,10 @@
         <v>500</v>
       </c>
       <c r="L76" s="3">
+        <v>500</v>
+      </c>
+      <c r="M76" s="3">
         <v>700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>500</v>
@@ -5700,13 +5885,13 @@
         <v>500</v>
       </c>
       <c r="P76" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>300</v>
       </c>
       <c r="S76" s="3">
         <v>300</v>
@@ -5718,10 +5903,10 @@
         <v>300</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X76" s="3">
         <v>200</v>
@@ -5730,16 +5915,19 @@
         <v>200</v>
       </c>
       <c r="Z76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA76" s="3">
         <v>100</v>
       </c>
       <c r="AB76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>100</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,32 +6832,32 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>500</v>
+        <v>-600</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>100</v>
+      <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
+        <v>100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -6654,10 +6874,10 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6677,14 +6897,17 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,62 +7069,65 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6912,19 +7141,22 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3" t="s">
-        <v>8</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,49 +7515,52 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7327,10 +7572,10 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DREM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>DREM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,281 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1100</v>
       </c>
       <c r="P8" s="3">
         <v>1000</v>
       </c>
       <c r="Q8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
-      </c>
-      <c r="V8" s="3">
-        <v>900</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
       </c>
       <c r="X8" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Y8" s="3">
         <v>600</v>
       </c>
       <c r="Z8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>500</v>
       </c>
-      <c r="AC8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>800</v>
       </c>
       <c r="G9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>800</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>700</v>
       </c>
       <c r="Q9" s="3">
+        <v>900</v>
+      </c>
+      <c r="R9" s="3">
+        <v>700</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
-      </c>
-      <c r="T9" s="3">
-        <v>300</v>
-      </c>
-      <c r="U9" s="3">
-        <v>500</v>
       </c>
       <c r="V9" s="3">
         <v>300</v>
       </c>
       <c r="W9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
@@ -934,57 +948,63 @@
         <v>400</v>
       </c>
       <c r="Z9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB9" s="3">
         <v>700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>400</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
@@ -993,25 +1013,25 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>600</v>
-      </c>
-      <c r="W10" s="3">
-        <v>200</v>
-      </c>
-      <c r="X10" s="3">
-        <v>300</v>
       </c>
       <c r="Y10" s="3">
         <v>200</v>
@@ -1023,13 +1043,19 @@
         <v>200</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,23 +1259,29 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1254,23 +1294,23 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1278,11 +1318,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1290,11 +1330,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1308,19 +1348,25 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,64 +1471,66 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
@@ -1488,42 +1542,48 @@
         <v>700</v>
       </c>
       <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>700</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>900</v>
       </c>
       <c r="AA17" s="3">
         <v>700</v>
       </c>
       <c r="AB17" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
@@ -1532,61 +1592,67 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,13 +1682,15 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1699,28 +1767,34 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
@@ -1729,61 +1803,67 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>100</v>
-      </c>
       <c r="AB21" s="3">
         <v>100</v>
       </c>
       <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1800,25 +1880,25 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1835,14 +1915,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1865,129 +1945,141 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>100</v>
-      </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2025,14 +2117,20 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>100</v>
-      </c>
       <c r="AB26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>100</v>
-      </c>
       <c r="AB27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,13 +2746,19 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2695,91 +2835,103 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>100</v>
-      </c>
       <c r="AB33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>100</v>
-      </c>
       <c r="AB35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,67 +3266,69 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
       <c r="N41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
@@ -3166,19 +3340,25 @@
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB41" s="3">
         <v>300</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,55 +3440,61 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M43" s="3">
+        <v>600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
@@ -3317,34 +3503,40 @@
         <v>300</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3375,44 +3567,44 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
       </c>
       <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
-        <v>100</v>
-      </c>
       <c r="X44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3426,19 +3618,25 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3470,11 +3668,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
@@ -3488,14 +3686,14 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3506,102 +3704,114 @@
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>600</v>
-      </c>
-      <c r="S46" s="3">
-        <v>700</v>
       </c>
       <c r="T46" s="3">
         <v>600</v>
       </c>
       <c r="U46" s="3">
+        <v>700</v>
+      </c>
+      <c r="V46" s="3">
+        <v>600</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>800</v>
       </c>
       <c r="AA46" s="3">
         <v>700</v>
       </c>
       <c r="AB46" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AC46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3622,13 +3832,13 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3649,19 +3859,19 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3714,13 +3930,13 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3752,14 +3968,20 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,46 +4241,52 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>900</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
       </c>
       <c r="N52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="O52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
@@ -4055,10 +4295,10 @@
         <v>600</v>
       </c>
       <c r="R52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>400</v>
@@ -4067,31 +4307,37 @@
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>400</v>
+      </c>
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
-      <c r="Y52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>100</v>
-      </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F54" s="3">
         <v>7200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1100</v>
       </c>
       <c r="S54" s="3">
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>500</v>
       </c>
-      <c r="AC54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,159 +4578,167 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
       </c>
       <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="E58" s="3">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="F58" s="3">
         <v>4800</v>
       </c>
       <c r="G58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
+      <c r="Y58" s="3">
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
@@ -4478,43 +4746,49 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -4523,31 +4797,31 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
@@ -4556,116 +4830,128 @@
         <v>300</v>
       </c>
       <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
-      <c r="AC59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>1100</v>
       </c>
       <c r="N60" s="3">
+        <v>800</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2500</v>
       </c>
       <c r="H61" s="3">
         <v>2500</v>
@@ -4674,14 +4960,14 @@
         <v>2500</v>
       </c>
       <c r="J61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L61" s="3">
         <v>1700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4762,23 +5054,23 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -4789,11 +5081,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7600</v>
       </c>
       <c r="I66" s="3">
         <v>7900</v>
       </c>
       <c r="J66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L66" s="3">
         <v>7000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>1100</v>
       </c>
       <c r="N66" s="3">
+        <v>800</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,8 +5853,14 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5520,40 +5868,40 @@
         <v>-1600</v>
       </c>
       <c r="E72" s="3">
-        <v>-800</v>
+        <v>-1500</v>
       </c>
       <c r="F72" s="3">
         <v>-1600</v>
       </c>
       <c r="G72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q72" s="3">
         <v>-1500</v>
@@ -5562,40 +5910,46 @@
         <v>-1400</v>
       </c>
       <c r="S72" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="T72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="U72" s="3">
         <v>-1300</v>
       </c>
       <c r="V72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="W72" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="X72" s="3">
         <v>-1400</v>
       </c>
       <c r="Y72" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="Z72" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="AA72" s="3">
         <v>-1300</v>
       </c>
       <c r="AB72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,61 +6209,67 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>400</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
       </c>
       <c r="K76" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L76" s="3">
         <v>500</v>
       </c>
       <c r="M76" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>500</v>
       </c>
       <c r="O76" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P76" s="3">
         <v>500</v>
       </c>
       <c r="Q76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R76" s="3">
         <v>500</v>
       </c>
       <c r="S76" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T76" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U76" s="3">
         <v>300</v>
@@ -5906,28 +6278,34 @@
         <v>300</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="3">
         <v>200</v>
       </c>
       <c r="AA76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>100</v>
-      </c>
       <c r="AB81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,47 +7137,53 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
@@ -6760,16 +7194,16 @@
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -6781,10 +7215,10 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>200</v>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,47 +7263,49 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3">
-        <v>100</v>
-      </c>
-      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
+        <v>100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6877,13 +7319,13 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6900,14 +7342,20 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,68 +7526,74 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -7144,19 +7604,25 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,46 +8019,46 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7575,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,67 +8182,73 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
@@ -7759,12 +8263,18 @@
         <v>100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>
